--- a/Problems/Interactive Problems.xlsx
+++ b/Problems/Interactive Problems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming_Codes\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6A80F3-C554-412D-8900-B6868280ACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96B777-500D-410D-9C63-C14217097B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB7E3D0B-348A-407A-8B28-C440CD723D0B}"/>
   </bookViews>
@@ -148,6 +148,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> if Alice has number 1 … then bob will put 2 into a black cell if possible otherwise it will put into 3 into a white cell. if Alice has number 2 then bob will put 1 into a white cell if possible otherwise he will put 3 into a black cell. if Alice has number 3 bob can put 3 into any colored cell . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The idea here is to fill either all the white or all the black cells first.  </t>
     </r>
   </si>
 </sst>
@@ -316,16 +326,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -337,14 +350,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -657,7 +667,7 @@
   <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E37"/>
+      <selection activeCell="E20" sqref="E20:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,1893 +704,1895 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="34.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="12">
         <v>4</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <v>5</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="7"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="7"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="7"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="7"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="7"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="7"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="7"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="7"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="7"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="7"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="7"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="7"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="7"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="7"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="7"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="7"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="7"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="7"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="6"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="6"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="6"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="6"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="6"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="6"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="6"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="6"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="6"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="6"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="6"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="6"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="6"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="6"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="6"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="6"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="6"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="6"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="6"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="6"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="6"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="6"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="6"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="6"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="6"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="6"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="6"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="6"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="7"/>
-      <c r="G92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="9"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="6"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="7"/>
-      <c r="G93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="9"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="6"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="7"/>
-      <c r="G94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="9"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="6"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="7"/>
-      <c r="G95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="9"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="6"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="7"/>
-      <c r="G96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="9"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="6"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="7"/>
-      <c r="G97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="9"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="6"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="7"/>
-      <c r="G98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="9"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="6"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="7"/>
-      <c r="G99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="9"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="6"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="7"/>
-      <c r="G100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="9"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="6"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="7"/>
-      <c r="G101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="9"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="6"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="7"/>
-      <c r="G102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="9"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="6"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="7"/>
-      <c r="G103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="9"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="6"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="7"/>
-      <c r="G104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="9"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="6"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="7"/>
-      <c r="G105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="9"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="6"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="7"/>
-      <c r="G106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="9"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="6"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="7"/>
-      <c r="G107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="9"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="6"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="7"/>
-      <c r="G108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="9"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="6"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="7"/>
-      <c r="G109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="9"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="6"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="7"/>
-      <c r="G110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="9"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="6"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="7"/>
-      <c r="G111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="9"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="6"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="7"/>
-      <c r="G112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="9"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="6"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="7"/>
-      <c r="G113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="9"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="6"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="7"/>
-      <c r="G114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="9"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="6"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="7"/>
-      <c r="G115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="9"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="6"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="7"/>
-      <c r="G116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="9"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="6"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="7"/>
-      <c r="G117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="9"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="6"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="7"/>
-      <c r="G118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="9"/>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C119" s="6"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C120" s="6"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C121" s="6"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C122" s="6"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C123" s="6"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C124" s="6"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C125" s="6"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C126" s="6"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C127" s="6"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="G127" s="11"/>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11"/>
+      <c r="G128" s="11"/>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="G129" s="11"/>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
+      <c r="G130" s="11"/>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="G131" s="11"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
+      <c r="G132" s="11"/>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
+      <c r="G134" s="11"/>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11"/>
+      <c r="G135" s="11"/>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="11"/>
+      <c r="G139" s="11"/>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="11"/>
+      <c r="G141" s="11"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="11"/>
+      <c r="G142" s="11"/>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="11"/>
+      <c r="G143" s="11"/>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="11"/>
+      <c r="G144" s="11"/>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="11"/>
+      <c r="G145" s="11"/>
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="11"/>
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="11"/>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11"/>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="11"/>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="11"/>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="11"/>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="11"/>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="11"/>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="11"/>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="11"/>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="11"/>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="11"/>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="11"/>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="11"/>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="11"/>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="11"/>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="11"/>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="11"/>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="11"/>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="11"/>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="11"/>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="11"/>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="11"/>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="11"/>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="11"/>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D173" s="6"/>
-      <c r="E173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="11"/>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D174" s="6"/>
-      <c r="E174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="11"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D175" s="6"/>
-      <c r="E175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="11"/>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D176" s="6"/>
-      <c r="E176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="11"/>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D177" s="6"/>
-      <c r="E177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="11"/>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D178" s="6"/>
-      <c r="E178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="11"/>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D179" s="6"/>
-      <c r="E179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="11"/>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D180" s="6"/>
-      <c r="E180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="11"/>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D181" s="6"/>
-      <c r="E181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="11"/>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D182" s="6"/>
-      <c r="E182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="11"/>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D183" s="6"/>
-      <c r="E183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="11"/>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D184" s="6"/>
-      <c r="E184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="11"/>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D185" s="6"/>
-      <c r="E185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="11"/>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D186" s="6"/>
-      <c r="E186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="11"/>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D187" s="6"/>
-      <c r="E187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="11"/>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D188" s="6"/>
-      <c r="E188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="11"/>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D189" s="6"/>
-      <c r="E189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="11"/>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D190" s="6"/>
-      <c r="E190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="11"/>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D191" s="6"/>
-      <c r="E191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="11"/>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D192" s="6"/>
-      <c r="E192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="11"/>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D193" s="6"/>
-      <c r="E193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="11"/>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D194" s="6"/>
-      <c r="E194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="11"/>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D195" s="6"/>
-      <c r="E195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="11"/>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D196" s="6"/>
-      <c r="E196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="11"/>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D197" s="6"/>
-      <c r="E197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="11"/>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D198" s="6"/>
-      <c r="E198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="11"/>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D199" s="6"/>
-      <c r="E199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="11"/>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D200" s="6"/>
+      <c r="D200" s="10"/>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D201" s="6"/>
+      <c r="D201" s="10"/>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D202" s="6"/>
+      <c r="D202" s="10"/>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D203" s="6"/>
+      <c r="D203" s="10"/>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D204" s="6"/>
+      <c r="D204" s="10"/>
     </row>
     <row r="205" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D205" s="6"/>
+      <c r="D205" s="10"/>
     </row>
     <row r="206" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D206" s="6"/>
+      <c r="D206" s="10"/>
     </row>
     <row r="207" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D207" s="6"/>
+      <c r="D207" s="10"/>
     </row>
     <row r="208" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D208" s="6"/>
+      <c r="D208" s="10"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D209" s="6"/>
+      <c r="D209" s="10"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D210" s="6"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D211" s="6"/>
+      <c r="D211" s="10"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D212" s="6"/>
+      <c r="D212" s="10"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D213" s="6"/>
+      <c r="D213" s="10"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D214" s="6"/>
+      <c r="D214" s="10"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D215" s="6"/>
+      <c r="D215" s="10"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D216" s="6"/>
+      <c r="D216" s="10"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D217" s="6"/>
+      <c r="D217" s="10"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D218" s="6"/>
+      <c r="D218" s="10"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D219" s="6"/>
+      <c r="D219" s="10"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D220" s="6"/>
+      <c r="D220" s="10"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D221" s="6"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D222" s="6"/>
+      <c r="D222" s="10"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D223" s="6"/>
+      <c r="D223" s="10"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D224" s="6"/>
+      <c r="D224" s="10"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D225" s="6"/>
+      <c r="D225" s="10"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D226" s="6"/>
+      <c r="D226" s="10"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D227" s="6"/>
+      <c r="D227" s="10"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D228" s="6"/>
+      <c r="D228" s="10"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D229" s="6"/>
+      <c r="D229" s="10"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D230" s="6"/>
+      <c r="D230" s="10"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D231" s="6"/>
+      <c r="D231" s="10"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D232" s="6"/>
+      <c r="D232" s="10"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D233" s="6"/>
+      <c r="D233" s="10"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D234" s="6"/>
+      <c r="D234" s="10"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D235" s="6"/>
+      <c r="D235" s="10"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D236" s="6"/>
+      <c r="D236" s="10"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D237" s="6"/>
+      <c r="D237" s="10"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D238" s="6"/>
+      <c r="D238" s="10"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D239" s="6"/>
+      <c r="D239" s="10"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D240" s="6"/>
+      <c r="D240" s="10"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D241" s="6"/>
+      <c r="D241" s="10"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D242" s="6"/>
+      <c r="D242" s="10"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D243" s="6"/>
+      <c r="D243" s="10"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D244" s="6"/>
+      <c r="D244" s="10"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D245" s="6"/>
+      <c r="D245" s="10"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D246" s="6"/>
+      <c r="D246" s="10"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D247" s="6"/>
+      <c r="D247" s="10"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D248" s="6"/>
+      <c r="D248" s="10"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D249" s="6"/>
+      <c r="D249" s="10"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D250" s="6"/>
+      <c r="D250" s="10"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D251" s="6"/>
+      <c r="D251" s="10"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D252" s="6"/>
+      <c r="D252" s="10"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D253" s="6"/>
+      <c r="D253" s="10"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D254" s="6"/>
+      <c r="D254" s="10"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D255" s="6"/>
+      <c r="D255" s="10"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D256" s="6"/>
+      <c r="D256" s="10"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D257" s="6"/>
+      <c r="D257" s="10"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D258" s="6"/>
+      <c r="D258" s="10"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D259" s="6"/>
+      <c r="D259" s="10"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D260" s="6"/>
+      <c r="D260" s="10"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D261" s="6"/>
+      <c r="D261" s="10"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D262" s="6"/>
+      <c r="D262" s="10"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D263" s="6"/>
+      <c r="D263" s="10"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D264" s="6"/>
+      <c r="D264" s="10"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D265" s="6"/>
+      <c r="D265" s="10"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D266" s="6"/>
+      <c r="D266" s="10"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D267" s="6"/>
+      <c r="D267" s="10"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D268" s="6"/>
+      <c r="D268" s="10"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D269" s="6"/>
+      <c r="D269" s="10"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D270" s="6"/>
+      <c r="D270" s="10"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D271" s="6"/>
+      <c r="D271" s="10"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D272" s="6"/>
+      <c r="D272" s="10"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D273" s="6"/>
+      <c r="D273" s="10"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D274" s="6"/>
+      <c r="D274" s="10"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D275" s="6"/>
+      <c r="D275" s="10"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D276" s="6"/>
+      <c r="D276" s="10"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D277" s="6"/>
+      <c r="D277" s="10"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D278" s="6"/>
+      <c r="D278" s="10"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D279" s="6"/>
+      <c r="D279" s="10"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D280" s="6"/>
+      <c r="D280" s="10"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D281" s="6"/>
+      <c r="D281" s="10"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D282" s="6"/>
+      <c r="D282" s="10"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D283" s="6"/>
+      <c r="D283" s="10"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D284" s="6"/>
+      <c r="D284" s="10"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D285" s="6"/>
+      <c r="D285" s="10"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D286" s="6"/>
+      <c r="D286" s="10"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D287" s="6"/>
+      <c r="D287" s="10"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D288" s="6"/>
+      <c r="D288" s="10"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D289" s="6"/>
+      <c r="D289" s="10"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D290" s="6"/>
+      <c r="D290" s="10"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D291" s="6"/>
+      <c r="D291" s="10"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D292" s="6"/>
+      <c r="D292" s="10"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D293" s="6"/>
+      <c r="D293" s="10"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D294" s="6"/>
+      <c r="D294" s="10"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D295" s="6"/>
+      <c r="D295" s="10"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D296" s="6"/>
+      <c r="D296" s="10"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D297" s="6"/>
+      <c r="D297" s="10"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D298" s="6"/>
+      <c r="D298" s="10"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D299" s="6"/>
+      <c r="D299" s="10"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D300" s="6"/>
+      <c r="D300" s="10"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D301" s="6"/>
+      <c r="D301" s="10"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D302" s="6"/>
+      <c r="D302" s="10"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D303" s="6"/>
+      <c r="D303" s="10"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D304" s="6"/>
+      <c r="D304" s="10"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D305" s="6"/>
+      <c r="D305" s="10"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D306" s="6"/>
+      <c r="D306" s="10"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D307" s="6"/>
+      <c r="D307" s="10"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D308" s="6"/>
+      <c r="D308" s="10"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D309" s="6"/>
+      <c r="D309" s="10"/>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D310" s="6"/>
+      <c r="D310" s="10"/>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D311" s="6"/>
+      <c r="D311" s="10"/>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D312" s="6"/>
+      <c r="D312" s="10"/>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D313" s="6"/>
+      <c r="D313" s="10"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D314" s="6"/>
+      <c r="D314" s="10"/>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D315" s="6"/>
+      <c r="D315" s="10"/>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D316" s="6"/>
+      <c r="D316" s="10"/>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D317" s="6"/>
+      <c r="D317" s="10"/>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D318" s="6"/>
+      <c r="D318" s="10"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D319" s="6"/>
+      <c r="D319" s="10"/>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D320" s="6"/>
+      <c r="D320" s="10"/>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D321" s="6"/>
+      <c r="D321" s="10"/>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D322" s="6"/>
+      <c r="D322" s="10"/>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D323" s="6"/>
+      <c r="D323" s="10"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D324" s="6"/>
+      <c r="D324" s="10"/>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D325" s="6"/>
+      <c r="D325" s="10"/>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D326" s="6"/>
+      <c r="D326" s="10"/>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D327" s="6"/>
+      <c r="D327" s="10"/>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D328" s="6"/>
+      <c r="D328" s="10"/>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D329" s="6"/>
+      <c r="D329" s="10"/>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D330" s="6"/>
+      <c r="D330" s="10"/>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D331" s="6"/>
+      <c r="D331" s="10"/>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D332" s="6"/>
+      <c r="D332" s="10"/>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D333" s="6"/>
+      <c r="D333" s="10"/>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D334" s="6"/>
+      <c r="D334" s="10"/>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D335" s="6"/>
+      <c r="D335" s="10"/>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D336" s="6"/>
+      <c r="D336" s="10"/>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D337" s="6"/>
+      <c r="D337" s="10"/>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D338" s="6"/>
+      <c r="D338" s="10"/>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D339" s="6"/>
+      <c r="D339" s="10"/>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D340" s="6"/>
+      <c r="D340" s="10"/>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D341" s="6"/>
+      <c r="D341" s="10"/>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D342" s="6"/>
+      <c r="D342" s="10"/>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D343" s="6"/>
+      <c r="D343" s="10"/>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D344" s="6"/>
+      <c r="D344" s="10"/>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D345" s="6"/>
+      <c r="D345" s="10"/>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D346" s="6"/>
+      <c r="D346" s="10"/>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D347" s="6"/>
+      <c r="D347" s="10"/>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D348" s="6"/>
+      <c r="D348" s="10"/>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D349" s="6"/>
+      <c r="D349" s="10"/>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D350" s="6"/>
+      <c r="D350" s="10"/>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D351" s="6"/>
+      <c r="D351" s="10"/>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D352" s="6"/>
+      <c r="D352" s="10"/>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D353" s="6"/>
+      <c r="D353" s="10"/>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D354" s="6"/>
+      <c r="D354" s="10"/>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D355" s="6"/>
+      <c r="D355" s="10"/>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D356" s="6"/>
+      <c r="D356" s="10"/>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D357" s="6"/>
+      <c r="D357" s="10"/>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D358" s="6"/>
+      <c r="D358" s="10"/>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D359" s="6"/>
+      <c r="D359" s="10"/>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D360" s="6"/>
+      <c r="D360" s="10"/>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D361" s="6"/>
+      <c r="D361" s="10"/>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D362" s="6"/>
+      <c r="D362" s="10"/>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D363" s="6"/>
+      <c r="D363" s="10"/>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D364" s="6"/>
+      <c r="D364" s="10"/>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D365" s="6"/>
+      <c r="D365" s="10"/>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D366" s="6"/>
+      <c r="D366" s="10"/>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D367" s="6"/>
+      <c r="D367" s="10"/>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D368" s="6"/>
+      <c r="D368" s="10"/>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D369" s="6"/>
+      <c r="D369" s="10"/>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D370" s="6"/>
+      <c r="D370" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="C137:C145"/>
-    <mergeCell ref="C146:C154"/>
-    <mergeCell ref="C155:C163"/>
-    <mergeCell ref="C164:C172"/>
-    <mergeCell ref="C92:C100"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="C110:C118"/>
-    <mergeCell ref="C119:C127"/>
-    <mergeCell ref="C128:C136"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="F20:F28"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="G38:G46"/>
-    <mergeCell ref="C47:C55"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="C74:C82"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="G47:G55"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="G65:G73"/>
-    <mergeCell ref="G74:G82"/>
-    <mergeCell ref="G83:G91"/>
-    <mergeCell ref="E110:E118"/>
-    <mergeCell ref="E119:E127"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="E137:E145"/>
-    <mergeCell ref="E146:E154"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="F38:F46"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="G29:G37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="G92:G100"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="G110:G118"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="G128:G136"/>
-    <mergeCell ref="G137:G145"/>
+    <mergeCell ref="D353:D361"/>
+    <mergeCell ref="D362:D370"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="D281:D289"/>
+    <mergeCell ref="D290:D298"/>
+    <mergeCell ref="D299:D307"/>
+    <mergeCell ref="D308:D316"/>
+    <mergeCell ref="D317:D325"/>
+    <mergeCell ref="D326:D334"/>
+    <mergeCell ref="D227:D235"/>
+    <mergeCell ref="D236:D244"/>
+    <mergeCell ref="D245:D253"/>
+    <mergeCell ref="D254:D262"/>
+    <mergeCell ref="D263:D271"/>
+    <mergeCell ref="F47:F55"/>
+    <mergeCell ref="F56:F64"/>
+    <mergeCell ref="F65:F73"/>
+    <mergeCell ref="F74:F82"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="D272:D280"/>
+    <mergeCell ref="D173:D181"/>
+    <mergeCell ref="D182:D190"/>
+    <mergeCell ref="D191:D199"/>
+    <mergeCell ref="D200:D208"/>
+    <mergeCell ref="D209:D217"/>
+    <mergeCell ref="D218:D226"/>
+    <mergeCell ref="D335:D343"/>
+    <mergeCell ref="D344:D352"/>
+    <mergeCell ref="D164:D172"/>
+    <mergeCell ref="E182:E190"/>
+    <mergeCell ref="E191:E199"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="D38:D46"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="D56:D64"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="D74:D82"/>
+    <mergeCell ref="E164:E172"/>
+    <mergeCell ref="E173:E181"/>
+    <mergeCell ref="D92:D100"/>
+    <mergeCell ref="D101:D109"/>
+    <mergeCell ref="D110:D118"/>
+    <mergeCell ref="D119:D127"/>
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="D137:D145"/>
+    <mergeCell ref="D146:D154"/>
     <mergeCell ref="D155:D163"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="A2:A10"/>
@@ -2605,54 +2617,52 @@
     <mergeCell ref="E83:E91"/>
     <mergeCell ref="E92:E100"/>
     <mergeCell ref="E101:E109"/>
-    <mergeCell ref="D209:D217"/>
-    <mergeCell ref="D218:D226"/>
-    <mergeCell ref="D335:D343"/>
-    <mergeCell ref="D344:D352"/>
-    <mergeCell ref="D164:D172"/>
-    <mergeCell ref="E182:E190"/>
-    <mergeCell ref="E191:E199"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="D56:D64"/>
-    <mergeCell ref="D65:D73"/>
-    <mergeCell ref="D74:D82"/>
-    <mergeCell ref="E164:E172"/>
-    <mergeCell ref="E173:E181"/>
-    <mergeCell ref="D92:D100"/>
-    <mergeCell ref="D101:D109"/>
-    <mergeCell ref="D110:D118"/>
-    <mergeCell ref="D119:D127"/>
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="D137:D145"/>
-    <mergeCell ref="D146:D154"/>
-    <mergeCell ref="D353:D361"/>
-    <mergeCell ref="D362:D370"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="D281:D289"/>
-    <mergeCell ref="D290:D298"/>
-    <mergeCell ref="D299:D307"/>
-    <mergeCell ref="D308:D316"/>
-    <mergeCell ref="D317:D325"/>
-    <mergeCell ref="D326:D334"/>
-    <mergeCell ref="D227:D235"/>
-    <mergeCell ref="D236:D244"/>
-    <mergeCell ref="D245:D253"/>
-    <mergeCell ref="D254:D262"/>
-    <mergeCell ref="D263:D271"/>
-    <mergeCell ref="F47:F55"/>
-    <mergeCell ref="F56:F64"/>
-    <mergeCell ref="F65:F73"/>
-    <mergeCell ref="F74:F82"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="D272:D280"/>
-    <mergeCell ref="D173:D181"/>
-    <mergeCell ref="D182:D190"/>
-    <mergeCell ref="D191:D199"/>
-    <mergeCell ref="D200:D208"/>
+    <mergeCell ref="E110:E118"/>
+    <mergeCell ref="E119:E127"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="E137:E145"/>
+    <mergeCell ref="E146:E154"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="F38:F46"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="G29:G37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="G92:G100"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="G110:G118"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="G128:G136"/>
+    <mergeCell ref="G137:G145"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="F20:F28"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="G38:G46"/>
+    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="G47:G55"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="G65:G73"/>
+    <mergeCell ref="G74:G82"/>
+    <mergeCell ref="G83:G91"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="C38:C46"/>
+    <mergeCell ref="C137:C145"/>
+    <mergeCell ref="C146:C154"/>
+    <mergeCell ref="C155:C163"/>
+    <mergeCell ref="C164:C172"/>
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="C110:C118"/>
+    <mergeCell ref="C119:C127"/>
+    <mergeCell ref="C128:C136"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
